--- a/GoNoGo/archivos_prueba/crossfile.xlsx
+++ b/GoNoGo/archivos_prueba/crossfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t xml:space="preserve">47, 51, 55, 57, 61, 65, 67, 70, 72, 76, 81, 82, 89, 93, 96, 98, 100, 105, 109, 111, 114, 118, 123, 126, 127, 136, 141, 143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1328_15y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 3, 4, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41, 47, 82, 98, 127, 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49, 51, 55, 57, 61, 65, 67, 70, 72, 76, 81, 89, 93, 96, 100, 105, 109, 111, 114, 118, 123, 126, 134, 136, 141, 143, 148</t>
   </si>
 </sst>
 </file>
@@ -492,6 +507,48 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
